--- a/biology/Zoologie/Halcyoninae/Halcyoninae.xlsx
+++ b/biology/Zoologie/Halcyoninae/Halcyoninae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La sous-famille des Halcyoninae, ou Halcyoninés en français, est une sous-famille d'oiseaux, les martins-chasseurs[à définir], de la famille des Alcedinidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Position systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La sous-famille des Halcyoninés (Halcyoninae) a temporairement constitué la famille des Dacélonidés, mais a été réintégrée dans la famille des Alcédinidés.
 </t>
@@ -542,7 +556,9 @@
           <t>Liste alphabétique des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Actenoides Bonaparte, 1850
 Caridonax Cabanis &amp; Heine, 1860
@@ -583,7 +599,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>N.B. : l'ordre de cette liste n'est pas aléatoire, il correspond à des liens de parenté entre les différentes espèces (phylogénie). Elle a été établie à partir des listes d'Alan P. Peterson et de la Commission internationale des noms français des oiseaux (Cinfo).
 Martin-chasseur moine — Actenoides monachus (Bonaparte, 1850)
